--- a/biology/Médecine/Anévrisme/Anévrisme.xlsx
+++ b/biology/Médecine/Anévrisme/Anévrisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme</t>
+          <t>Anévrisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un anévrisme ou anévrysme (du mot grec ancien « ἀνεύρυσμα » [aneúrusma] signifiant « dilatation », dérivé du verbe « ἀνευρύνω » [aneurúnô] signifiant « élargir, dilater ») est une dilatation localisée de la paroi d'une artère aboutissant à la formation d'une poche de taille variable, communiquant avec l'artère au moyen d'une zone rétrécie que l'on nomme le « collet ». Sa forme habituelle est celle d'un sac, son diamètre pouvant atteindre plusieurs centimètres.
 L'anévrisme, où la paroi est intacte, doit être distingué du pseudo-anévrisme où la paroi est rompue et le sang contenu par les structures adjacentes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme</t>
+          <t>Anévrisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Formation générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation d'un anévrisme est étroitement liée à trois facteurs principaux :
 une anomalie de la paroi de l'artère, qui est amincie et ne comporte plus que son intima et son adventice. L'absence de media la prive de musculature et la rend donc flasque. Cette anomalie est le plus souvent congénitale ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme</t>
+          <t>Anévrisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,12 +569,14 @@
           <t>Pathologies liées à l'anévrisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque essentiel est celui de la rupture de l'anévrisme entraînant une hémorragie à l'origine d'une compression des structures adjacentes.
 Avant sa rupture, un anévrisme peut se manifester inconstamment par des signes secondaires à son volume et à la compression de structures proches (dans le cas d'un anévrisme cérébral : céphalées, déficits neurologiques focalisés…).
 Du fait de la modification du calibre de l'artère (sans augmentation du débit cardiaque), le flux sanguin, qui normalement était laminaire, devient turbulent au niveau de l'anévrisme. Cette turbulence peut entraîner la formation d'un thrombus (caillot de sang) dans le sac anévrismal qui pourra se détacher ultérieurement et aller se bloquer en aval dans une artère de plus petit calibre : c'est une embolie (risque d'ischémie).
-Avec le temps, l'anévrisme augmente progressivement de diamètre, et comme la tension de la paroi artérielle est proportionnelle au rayon de l'artère (conséquence de la loi de Laplace), le risque de rupture augmente[1]. Le risque de rupture devient menaçant dès un diamètre de 7 mm (pour les anévrismes des artères cérébrales). Lorsqu'il se rompt, l'anévrisme entraîne une hémorragie interne pouvant, si la rupture est importante, rapidement entraîner la mort par compression d'organes vitaux (le cerveau pour les localisations cérébrales, le cœur pour les localisations dans la crosse de l'aorte).
+Avec le temps, l'anévrisme augmente progressivement de diamètre, et comme la tension de la paroi artérielle est proportionnelle au rayon de l'artère (conséquence de la loi de Laplace), le risque de rupture augmente. Le risque de rupture devient menaçant dès un diamètre de 7 mm (pour les anévrismes des artères cérébrales). Lorsqu'il se rompt, l'anévrisme entraîne une hémorragie interne pouvant, si la rupture est importante, rapidement entraîner la mort par compression d'organes vitaux (le cerveau pour les localisations cérébrales, le cœur pour les localisations dans la crosse de l'aorte).
 Les anévrismes sont particulièrement fréquents au niveau des artères cérébrales, où leur rupture entraîne une hémorragie méningée (qui est un accident vasculaire cérébral).
 Dans tous les cas, la survenue d'une rupture d'anévrisme constitue une urgence absolue, du fait du risque de décès rapide.
 </t>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme</t>
+          <t>Anévrisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,50 +609,197 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anévrisme de l'aorte
-Il s'agit d'une dilatation du calibre de l'artère. Il peut intéresser tout segment de l'aorte. La localisation la plus fréquente se situe en dessous des artères rénales, c'est-à-dire dans la dernière portion de l'aorte. On parle alors d'anévrisme de l'aorte abdominale. Une autre localisation est l'anévrisme de l'aorte ascendante, située au niveau du thorax et comportant certaines spécificités.
-Anévrismes intracrâniens
-Leur rupture provoque un accident vasculaire cérébral souvent grave.
-Anévrismes des artères périphériques
-Les anévrismes des artères poplitées sont les plus fréquents après ceux de l'aorte abdominale.
-Anévrisme du cœur
-La cause la plus fréquente est la formation d'une cicatrice d'un infarctus du myocarde[2]. En plus du risque de rupture, il peut entraîner :
+          <t>Anévrisme de l'aorte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une dilatation du calibre de l'artère. Il peut intéresser tout segment de l'aorte. La localisation la plus fréquente se situe en dessous des artères rénales, c'est-à-dire dans la dernière portion de l'aorte. On parle alors d'anévrisme de l'aorte abdominale. Une autre localisation est l'anévrisme de l'aorte ascendante, située au niveau du thorax et comportant certaines spécificités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anévrismes suivant la localisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anévrismes intracrâniens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur rupture provoque un accident vasculaire cérébral souvent grave.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anévrismes suivant la localisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anévrismes des artères périphériques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anévrismes des artères poplitées sont les plus fréquents après ceux de l'aorte abdominale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anévrismes suivant la localisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anévrisme du cœur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause la plus fréquente est la formation d'une cicatrice d'un infarctus du myocarde. En plus du risque de rupture, il peut entraîner :
 une insuffisance cardiaque ;
 des troubles du rythme ventriculaire pouvant causer une mort subite ;
 une embolie par formation d'un caillot dans l'anévrisme.
 Une forme particulière est l'anévrisme de septum inter auriculaire parfois associé à la persistance de perméabilité du foramen ovale normalement fermé à la naissance. Il peut être responsable d'accidents vasculaires cérébraux transitoires ou constitués.
-Anévrisme artériel hépatique
-L'anévrisme artériel hépatique est une lésion vasculaire circonscrite, se développant sur le trajet de l’artère hépatique, par dilatation de ses parois et communiquant avec sa lumière, à la façon d’une poche ou d’un ventre renflé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anévrismes suivant la localisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anévrisme artériel hépatique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anévrisme artériel hépatique est une lésion vasculaire circonscrite, se développant sur le trajet de l’artère hépatique, par dilatation de ses parois et communiquant avec sa lumière, à la façon d’une poche ou d’un ventre renflé.
 Ses causes peuvent être une malformation congénitale, une infection, ou l’athérome.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échodoppler permet de mesurer l'anévrisme et de suivre son évolution lorsque ce dernier est accessible à cet examen (ce n'est pas le cas des anévrismes intra-crâniens).
 Le scanner et l'IRM ou l'angiographie sont les autres moyens d'investigation.
@@ -644,65 +807,107 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Facteurs de risques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consommation de tabac
-Le tabac est un des éléments augmentant la probabilité d'anévrisme chez les femmes. Le taux de risque d'anévrisme aortique est bien plus élevé chez les fumeuses que chez les non-fumeuses[3]. Les fumeuses sont quatre fois plus exposées à une rupture d'anévrisme que les anciennes fumeuses et encourent un risque d'anévrisme huit fois plus grand que les femmes n'ayant jamais fumé[3]. En outre, l'augmentation de la consommation de tabac est associée à une élévation du risque de rupture d'anévrisme[3].
-Après une COVID-19
-En cas de syndrome inflammatoire multisystémique chez l'enfant, des anévrismes de l'artère coronaire sont possibles, et - comme dans la maladie de Kawasaki - ces anévrismes peuvent se développer tardivement, voire après une amélioration apparente du patient[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Consommation de tabac</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tabac est un des éléments augmentant la probabilité d'anévrisme chez les femmes. Le taux de risque d'anévrisme aortique est bien plus élevé chez les fumeuses que chez les non-fumeuses. Les fumeuses sont quatre fois plus exposées à une rupture d'anévrisme que les anciennes fumeuses et encourent un risque d'anévrisme huit fois plus grand que les femmes n'ayant jamais fumé. En outre, l'augmentation de la consommation de tabac est associée à une élévation du risque de rupture d'anévrisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Facteurs de risques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Après une COVID-19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de syndrome inflammatoire multisystémique chez l'enfant, des anévrismes de l'artère coronaire sont possibles, et - comme dans la maladie de Kawasaki - ces anévrismes peuvent se développer tardivement, voire après une amélioration apparente du patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anévrisme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9vrisme</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tiers des anévrismes sont fortuitement découverts , par exemple lors d'un bilan pour céphalées, d'une échographie de la prostate, d'un bilan pour artérite ou après un traumatisme. Un médecin généraliste peut aussi le repérer sur l'aorte abdominale par une palpation abdominale (détection d'une masse battante expansive suspecte).
 Un dépistage par scanner ou par IRM devrait être proposé quand deux parents proches ont été touchés par un anévrisme et également pour les personnes atteintes de maladies du tissu conjonctif qui prédisposent aux anévrismes.
